--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -860,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,6 +1588,96 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2022-12-28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>costs📉</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>food🥗</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>vacherin</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>90</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>costs📉variablefood🥗</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>costs📉variable</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2022-12-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>costs📉</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>food🥗</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ssupermarche</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>45</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>costs📉variablefood🥗</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>costs📉variable</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -2,23 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="FIX_INIT" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="TRANS" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -27,26 +26,15 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
       <charset val="1"/>
-      <family val="0"/>
-      <b val="1"/>
-      <sz val="11"/>
+      <family val="2"/>
+      <sz val="8"/>
     </font>
     <font>
       <b val="1"/>
@@ -69,10 +57,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -82,51 +78,22 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -487,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,354 +463,364 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>categorie</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>key1</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>rep_number</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>rep_string</t>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>digit</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>timeunit</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>revenue📈</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>incomes📈</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>transfer💸</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" t="n">
         <v>800</v>
       </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>revenue📈fixtransfer💸</t>
-        </is>
-      </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t>revenue📈fix</t>
-        </is>
-      </c>
-      <c r="J2" s="7" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>incomes📈fix</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>2022-12-29</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>costs📉</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>housing🏠</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>weei</t>
         </is>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" t="n">
         <v>316</v>
       </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fixhousing🏠</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>week</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2023-01-22</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>costs📉</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>entertainment📺</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>week</t>
         </is>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" t="n">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fixentertainment📺</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J4" s="7" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>costs📉</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>insurance🤕</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" t="n">
         <v>45</v>
       </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fixinsurance🤕</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="7" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>costs📉</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>entertainment📺</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Disney+</t>
         </is>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fixentertainment📺</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J6" s="7" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="7" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>costs📉</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>clothing👕</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr"/>
-      <c r="G7" s="7" t="n">
+      <c r="G7" t="n">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fixclothing👕</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>incomes📈</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>salary🧑‍💼</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>bangermusic</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>234</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>incomes📈fix</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -860,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,59 +846,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>categorie</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>key1</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>rep_number</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>rep_string</t>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>digit</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>timeunit</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -936,7 +908,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>revenue📈</t>
+          <t>incomes📈</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -954,25 +926,20 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>revenue📈fixtransfer💸</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>revenue📈fix</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+          <t>incomes📈fix</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -987,7 +954,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>revenue📈</t>
+          <t>incomes📈</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1005,25 +972,20 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>revenue📈fixtransfer💸</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>revenue📈fix</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+          <t>incomes📈fix</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1038,7 +1000,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>revenue📈</t>
+          <t>incomes📈</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1056,25 +1018,20 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>revenue📈fixtransfer💸</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>revenue📈fix</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+          <t>incomes📈fix</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1089,7 +1046,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1107,25 +1064,20 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>costs📉fixhousing🏠</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>week</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1140,7 +1092,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1158,25 +1110,20 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>costs📉fixentertainment📺</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1191,7 +1138,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1209,25 +1156,20 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>costs📉fixinsurance🤕</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1242,7 +1184,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1260,30 +1202,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>costs📉fixentertainment📺</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>costs📉fix</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.12.2022</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1293,7 +1230,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>revenue📈</t>
+          <t>incomes📈</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1311,24 +1248,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>revenue📈variabletransfer💸</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>revenue📈variable</t>
-        </is>
-      </c>
+          <t>incomes📈variable</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22.12.2022</t>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1338,7 +1270,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1356,24 +1288,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>costs📉variablehousing🏠</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>costs📉variable</t>
-        </is>
-      </c>
+          <t>expenses📉variable</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22.12.2022</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1383,7 +1310,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1401,24 +1328,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>costs📉variableutilities🦼</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>costs📉variable</t>
-        </is>
-      </c>
+          <t>expenses📉variable</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22.12.2022</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1428,7 +1350,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1446,24 +1368,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>costs📉variablehousing🏠</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>costs📉variable</t>
-        </is>
-      </c>
+          <t>expenses📉variable</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22.12.2022</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1473,7 +1390,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>revenue📈</t>
+          <t>incomes📈</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1487,24 +1404,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>revenue📈variabletransfer💸</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>revenue📈variable</t>
-        </is>
-      </c>
+          <t>incomes📈variable</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22.12.2022</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1514,7 +1426,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1532,24 +1444,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>costs📉variableentertainment📺</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>costs📉variable</t>
-        </is>
-      </c>
+          <t>expenses📉variable</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22.12.2022</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1559,7 +1466,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1577,19 +1484,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>costs📉variableclothing👕</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>costs📉variable</t>
-        </is>
-      </c>
+          <t>expenses📉variable</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1604,7 +1506,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1622,19 +1524,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>costs📉variablefood🥗</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>costs📉variable</t>
-        </is>
-      </c>
+          <t>expenses📉variable</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1649,7 +1546,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>costs📉</t>
+          <t>expenses📉</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1667,16 +1564,237 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>costs📉variablefood🥗</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>costs📉variable</t>
-        </is>
-      </c>
+          <t>expenses📉variable</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>incomes📈</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>transfer💸</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>800</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>incomes📈fix</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>incomes📈</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>transfer💸</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>800</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>incomes📈fix</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2022-12-29</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>housing🏠</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>weei</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>316</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>entertainment📺</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Disney+</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>expenses📉</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>clothing👕</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>15</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>expenses📉fix</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
